--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1129998.131342673</v>
+        <v>-1131896.363446797</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>342.1544998463037</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>302.6251420167556</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>163.9557320410792</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>365.6119401818357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>118.9913269637017</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>232.6716713778559</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>5.791117132838708</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6023601652302204</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>151.2725262699916</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>102.067302645762</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>268.6375781801349</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>56.57756245340212</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>134.4958237418942</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185497</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>30.79827179296778</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>46.20822933023072</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>129.365775013957</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>283.2741843940248</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>92.94812786503913</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.996716976223953</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>150.4127183081604</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>5.562624396425368</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.0909333733112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463175</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463136</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1228.503300617142</v>
+        <v>1342.040632349782</v>
       </c>
       <c r="C2" t="n">
-        <v>1228.503300617142</v>
+        <v>1342.040632349782</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1342.040632349782</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2300.331063316341</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2046.569277954432</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1715.506390610862</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>1715.506390610862</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.808290699805</v>
+        <v>1342.040632349782</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.503300617142</v>
+        <v>1342.040632349782</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>607.9357246471395</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>607.9357246471395</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>380.6275373157412</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U4" t="n">
-        <v>380.6275373157412</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6275373157412</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6275373157412</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6275373157412</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.534876920951</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.534876920951</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.534876920951</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1971.274048960885</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1581.134716985073</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.5813018857447</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>579.3738810292748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>579.3738810292748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>579.3738810292748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>579.3738810292748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.5813018857447</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1640.777806202926</v>
+        <v>1104.379069117473</v>
       </c>
       <c r="C8" t="n">
-        <v>1640.777806202926</v>
+        <v>735.4165521770612</v>
       </c>
       <c r="D8" t="n">
-        <v>1282.512107596176</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>896.7238549979313</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1640.777806202926</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2249.048324543294</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C10" t="n">
-        <v>2080.112141615387</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D10" t="n">
-        <v>2080.112141615387</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E10" t="n">
-        <v>2080.112141615387</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F10" t="n">
-        <v>2080.112141615387</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G10" t="n">
-        <v>2080.112141615387</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>2080.112141615387</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>2469.840903686824</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U10" t="n">
-        <v>2469.840903686824</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V10" t="n">
-        <v>2469.840903686824</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W10" t="n">
-        <v>2469.840903686824</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X10" t="n">
-        <v>2469.840903686824</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y10" t="n">
-        <v>2249.048324543294</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>582.1916992613353</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.5778825909698</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5778825909698</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,52 +5197,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241921</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688035</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799327</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471154</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247821</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383403</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>420.3226148324535</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>130.9054447954929</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>699.5778825909698</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5361,22 +5361,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>2227.840212610278</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>573.2461374003673</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C16" t="n">
-        <v>573.2461374003673</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D16" t="n">
-        <v>423.1294979880315</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>275.2164044056384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>128.326456907728</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>852.117539127393</v>
       </c>
       <c r="W16" t="n">
-        <v>754.894602230607</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="X16" t="n">
-        <v>754.894602230607</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y16" t="n">
-        <v>754.894602230607</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5537,28 +5537,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147082</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211724</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011341</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265285</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O18" t="n">
-        <v>2050.644882483982</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>565.0010960824701</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>396.0649131545632</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.210845262961</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752260002</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X19" t="n">
-        <v>785.7936752260002</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>565.0010960824701</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>303.4575213834695</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>550.2226492899335</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698952</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1070.16875406576</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>815.4842658598729</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>815.4842658598729</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X22" t="n">
-        <v>815.4842658598729</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,31 +6054,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O24" t="n">
         <v>2123.441607278215</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.4651278373167</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>545.4651278373167</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>545.4651278373167</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>397.5520342549236</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>250.6620867570132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655738</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X25" t="n">
-        <v>727.1135926675564</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>727.1135926675564</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>154.3878371814099</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>303.4575213834697</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>550.2226492899338</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M27" t="n">
-        <v>857.5427825698953</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.1598612984388</v>
+        <v>102.8359039819276</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609664</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W28" t="n">
-        <v>696.5850465240057</v>
+        <v>330.825454879945</v>
       </c>
       <c r="X28" t="n">
-        <v>696.5850465240057</v>
+        <v>102.8359039819276</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.1598612984388</v>
+        <v>102.8359039819276</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,40 +6446,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6652,7 +6652,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1646.27469227828</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1925.814757496977</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2446.115379232724</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O36" t="n">
         <v>2005.509969085868</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7108,13 +7108,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7181,43 +7181,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>932.1883377003201</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>171.2966883299267</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>116.9087390531963</v>
       </c>
       <c r="P15" t="n">
-        <v>104.6241510367952</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>283.6093329825487</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,19 +9480,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>15.83804904622849</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>213.2603911806623</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>15.83804904622873</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>295.3773510571265</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,19 +10191,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>41.75994765618367</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>403.7628319612157</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>80.50021372615217</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,19 +10665,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>295.3773510571276</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>94.13752431970607</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>38.86002301949887</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>360.5026862907258</v>
+        <v>85.30006332127806</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,22 +11376,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>29.47535963978228</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>91.23759968302136</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>79.30522805550616</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.62599847421786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.67386501645612</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>14.11964927631817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229328</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871822</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>135.6952966704098</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>205.9294139935973</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>19.24969800425538</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>2.963168004552585</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>193.2892245335382</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>124.4198406026824</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>163.4968514871536</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>136.1102800284307</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>161.6841967022025</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.49371997878356</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.862155085169411e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142387.7480708447</v>
+        <v>142387.7480708446</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262497</v>
@@ -26323,34 +26323,34 @@
         <v>136860.1709081981</v>
       </c>
       <c r="F2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="G2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.170908198</v>
       </c>
       <c r="H2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="I2" t="n">
         <v>136860.1709081981</v>
       </c>
       <c r="J2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.170908198</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="N2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="O2" t="n">
         <v>143682.3097262495</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262497</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262495</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371258</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371251</v>
       </c>
     </row>
     <row r="4">
@@ -26421,37 +26421,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.73165600752</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007488</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-674134.0112361829</v>
+        <v>-674152.5049741174</v>
       </c>
       <c r="C6" t="n">
-        <v>-87093.81705308051</v>
+        <v>-87093.81705308062</v>
       </c>
       <c r="D6" t="n">
-        <v>-87093.81705308059</v>
+        <v>-87093.81705308057</v>
       </c>
       <c r="E6" t="n">
-        <v>-488203.9231734221</v>
+        <v>-488301.3822993941</v>
       </c>
       <c r="F6" t="n">
-        <v>36956.11330347406</v>
+        <v>36858.65417750183</v>
       </c>
       <c r="G6" t="n">
-        <v>36956.11330347405</v>
+        <v>36858.65417750174</v>
       </c>
       <c r="H6" t="n">
-        <v>36956.11330347405</v>
+        <v>36858.65417750178</v>
       </c>
       <c r="I6" t="n">
-        <v>36956.11330347403</v>
+        <v>36858.65417750183</v>
       </c>
       <c r="J6" t="n">
-        <v>-139467.1058891189</v>
+        <v>-139564.5650150912</v>
       </c>
       <c r="K6" t="n">
-        <v>-38873.82709481625</v>
+        <v>-38873.82709481622</v>
       </c>
       <c r="L6" t="n">
-        <v>15631.68500889622</v>
+        <v>15631.68500889618</v>
       </c>
       <c r="M6" t="n">
         <v>-119169.330224941</v>
       </c>
       <c r="N6" t="n">
-        <v>15631.6850088963</v>
+        <v>15631.68500889633</v>
       </c>
       <c r="O6" t="n">
-        <v>15631.68500889627</v>
+        <v>15631.68500889618</v>
       </c>
       <c r="P6" t="n">
-        <v>-38873.82709481649</v>
+        <v>-38873.82709481633</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26744,37 +26744,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>12.52854177437928</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>52.49258831657855</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.44390535290322</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>149.2586986944059</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>380.4468215232149</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>285.6795140767475</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>67.31212708210316</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>252.6157389749209</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>138.2384675615765</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>83.71149628510288</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>78.3880593389361</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="32">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>321.8721269178658</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>747.6947913160973</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556192</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,16 +35738,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>399.2724412943044</v>
       </c>
       <c r="P15" t="n">
-        <v>311.7175659683198</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>408.2698052695489</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>490.7027479140735</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36136,13 +36136,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>166.4134876341677</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>430.4987581881726</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>495.6240934217706</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>57.74822800113539</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>577.7410532982348</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>374.9545210541966</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>427.5988335514877</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -36932,7 +36932,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>714.1872090116819</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>168.5132465112263</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131518</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>376.5012265608142</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>245.9534379510236</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>609.76039124675</v>
+        <v>334.5577682773024</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38096,22 +38096,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>401.6619767334876</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>
